--- a/data/20230623/20230623_tempoptimum_lacticaseibacillus_amidase_35degrees_45degrees_Jungfrau2_Template.xlsx
+++ b/data/20230623/20230623_tempoptimum_lacticaseibacillus_amidase_35degrees_45degrees_Jungfrau2_Template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>10uL Enzyme + substrate</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,20 +699,164 @@
       <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
